--- a/data/trans_orig/Q45A_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q45A_R-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>14054</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7505</v>
+        <v>7136</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24684</v>
+        <v>23866</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02405928616446958</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01284856048934416</v>
+        <v>0.01221581586509502</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04225696130167834</v>
+        <v>0.04085738082052078</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -764,19 +764,19 @@
         <v>14540</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7946</v>
+        <v>8488</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23542</v>
+        <v>23656</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01576457413170602</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008614788479534742</v>
+        <v>0.009202348485859617</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02552426450587781</v>
+        <v>0.02564774543261487</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -785,19 +785,19 @@
         <v>28594</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19119</v>
+        <v>19257</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41380</v>
+        <v>40659</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01898088123061178</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01269097645814486</v>
+        <v>0.01278291699356123</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02746826283527521</v>
+        <v>0.02698923253396064</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>60628</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47322</v>
+        <v>46539</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>76538</v>
+        <v>79997</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1037902184991687</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08101194867233252</v>
+        <v>0.07967066014325797</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1310267627010088</v>
+        <v>0.1369474897527223</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -835,19 +835,19 @@
         <v>45487</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>33180</v>
+        <v>32652</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60500</v>
+        <v>58129</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04931784455937343</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03597417280734322</v>
+        <v>0.03540151500022728</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06559436190416748</v>
+        <v>0.06302429680647828</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>100</v>
@@ -856,19 +856,19 @@
         <v>106116</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>87485</v>
+        <v>85920</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>127485</v>
+        <v>128569</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07043972103980875</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05807249761755512</v>
+        <v>0.05703378873825853</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08462477072973433</v>
+        <v>0.08534443839636324</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>266896</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>242451</v>
+        <v>243710</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>292476</v>
+        <v>290425</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4569028693055927</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4150558953116298</v>
+        <v>0.417210537050558</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5006948187357109</v>
+        <v>0.4971832700784984</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>456</v>
@@ -906,19 +906,19 @@
         <v>470814</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>443692</v>
+        <v>440820</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>502140</v>
+        <v>501063</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5104599462926336</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4810538039826618</v>
+        <v>0.4779404094826113</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5444234737976962</v>
+        <v>0.5432563142850497</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>717</v>
@@ -927,19 +927,19 @@
         <v>737710</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>697875</v>
+        <v>697223</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>775837</v>
+        <v>776149</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4896929797928127</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4632506717693028</v>
+        <v>0.4628175653750961</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.515001856974074</v>
+        <v>0.5152089342917557</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>113879</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>93551</v>
+        <v>97205</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>133608</v>
+        <v>133814</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1949507959469919</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1601507000350244</v>
+        <v>0.1664069755231626</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2287248741651915</v>
+        <v>0.2290776493137806</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>160</v>
@@ -977,19 +977,19 @@
         <v>165686</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>143038</v>
+        <v>142996</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>190640</v>
+        <v>190212</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1796384027865721</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1550827179300721</v>
+        <v>0.1550377483861268</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2066932933534637</v>
+        <v>0.2062294593989971</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>276</v>
@@ -998,19 +998,19 @@
         <v>279565</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>249289</v>
+        <v>251750</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>309492</v>
+        <v>311877</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1855758432460555</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1654782532529632</v>
+        <v>0.1671120334141677</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2054412841605082</v>
+        <v>0.2070247764956293</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>128684</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>110498</v>
+        <v>107773</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>150499</v>
+        <v>148120</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2202968300837771</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1891637755851974</v>
+        <v>0.1844989353373227</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2576415800391316</v>
+        <v>0.2535688811168637</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>211</v>
@@ -1048,19 +1048,19 @@
         <v>225805</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>197465</v>
+        <v>198445</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>250378</v>
+        <v>254750</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2448192322297149</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2140928486999973</v>
+        <v>0.2151558354412761</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2714614197756408</v>
+        <v>0.2762015697808649</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>339</v>
@@ -1069,19 +1069,19 @@
         <v>354489</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>322498</v>
+        <v>325060</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>388361</v>
+        <v>395803</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2353105746907112</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2140744705173649</v>
+        <v>0.2157756620528538</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2577948563240129</v>
+        <v>0.2627349938258697</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>17201</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9611</v>
+        <v>10105</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27272</v>
+        <v>29424</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01595759798254259</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008916005649917335</v>
+        <v>0.009374412950737187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02530111282234536</v>
+        <v>0.02729774127466104</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1194,19 +1194,19 @@
         <v>19095</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11413</v>
+        <v>12030</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29958</v>
+        <v>30921</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01805584857731799</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01079204130139435</v>
+        <v>0.0113754593707247</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0283284663017354</v>
+        <v>0.02923821137302289</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1215,19 +1215,19 @@
         <v>36295</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25793</v>
+        <v>24888</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51817</v>
+        <v>49840</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01699672248146409</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01207836910957023</v>
+        <v>0.01165463692165813</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02426552465998917</v>
+        <v>0.02333973431712368</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>114072</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>95312</v>
+        <v>95169</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>135697</v>
+        <v>137517</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1058285235109179</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08842410533269095</v>
+        <v>0.08829152271652423</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1258904321504944</v>
+        <v>0.1275797833150779</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>66</v>
@@ -1265,19 +1265,19 @@
         <v>66255</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>51945</v>
+        <v>52727</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>82482</v>
+        <v>82681</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06265053839380345</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04911914339573584</v>
+        <v>0.04985844151251346</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0779947228029698</v>
+        <v>0.07818214084394889</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>177</v>
@@ -1286,19 +1286,19 @@
         <v>180327</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>156454</v>
+        <v>154502</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>207052</v>
+        <v>207534</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08444532826199001</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07326571499748155</v>
+        <v>0.07235163387499381</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09696033240063089</v>
+        <v>0.09718586240769043</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>526905</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>493255</v>
+        <v>496293</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>560139</v>
+        <v>560888</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.488828626691802</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4576103263037613</v>
+        <v>0.460428816509121</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5196605435828034</v>
+        <v>0.5203552313855073</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>499</v>
@@ -1336,19 +1336,19 @@
         <v>508052</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>477357</v>
+        <v>477730</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>541871</v>
+        <v>539311</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4804098743303322</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4513847961592788</v>
+        <v>0.4517377474899523</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5123893359784271</v>
+        <v>0.5099682210949774</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1019</v>
@@ -1357,19 +1357,19 @@
         <v>1034957</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>984232</v>
+        <v>991097</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1077832</v>
+        <v>1083590</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4846593764359273</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4609051441127645</v>
+        <v>0.4641201585390648</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5047374421238543</v>
+        <v>0.5074338464866071</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>233677</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>209397</v>
+        <v>207308</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>262381</v>
+        <v>260164</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2167907560185149</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1942651533664215</v>
+        <v>0.19232721434458</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2434200363449218</v>
+        <v>0.2413636970816768</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>228</v>
@@ -1407,19 +1407,19 @@
         <v>234031</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>205954</v>
+        <v>208645</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>259507</v>
+        <v>261514</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2212978180056171</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1947487808133134</v>
+        <v>0.1972929092172695</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2453878818147986</v>
+        <v>0.2472858615645414</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>461</v>
@@ -1428,19 +1428,19 @@
         <v>467708</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>428858</v>
+        <v>431177</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>504389</v>
+        <v>503393</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.21902280520302</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2008294324810614</v>
+        <v>0.2019157538801129</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2361998734687747</v>
+        <v>0.2357335249270541</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>186039</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>161282</v>
+        <v>162593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>213790</v>
+        <v>212996</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1725944957962226</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1496273259091045</v>
+        <v>0.1508434010071902</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1983402814265509</v>
+        <v>0.1976036622305562</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>217</v>
@@ -1478,19 +1478,19 @@
         <v>230105</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>203738</v>
+        <v>201152</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>258665</v>
+        <v>256431</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2175859206929293</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1926527678765587</v>
+        <v>0.1902076915135523</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2445915043202444</v>
+        <v>0.2424794406660733</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>392</v>
@@ -1499,19 +1499,19 @@
         <v>416144</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>382243</v>
+        <v>382029</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>459947</v>
+        <v>458041</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1948757676175986</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1790002548330528</v>
+        <v>0.1789002521499816</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2153881836661494</v>
+        <v>0.2144955940716174</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>19551</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12226</v>
+        <v>12058</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30249</v>
+        <v>30638</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01744548469540849</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01090925741920017</v>
+        <v>0.0107593128498959</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02699076549616297</v>
+        <v>0.02733838115583256</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1624,19 +1624,19 @@
         <v>14862</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8222</v>
+        <v>8262</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23562</v>
+        <v>23707</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01495255919337802</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00827168895122244</v>
+        <v>0.008311967261031103</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02370522401202209</v>
+        <v>0.02385184018525912</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -1645,19 +1645,19 @@
         <v>34413</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23935</v>
+        <v>24438</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46931</v>
+        <v>48022</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0162737393080305</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01131866480723546</v>
+        <v>0.0115563712124764</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0221936138814135</v>
+        <v>0.0227093164558626</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>105562</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87104</v>
+        <v>86212</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127247</v>
+        <v>126812</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0941932499293245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07772328370963269</v>
+        <v>0.07692703768964597</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1135427542247966</v>
+        <v>0.1131544048443335</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>97</v>
@@ -1695,19 +1695,19 @@
         <v>96428</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>77574</v>
+        <v>79355</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>114280</v>
+        <v>115398</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09701602183338735</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07804744069033392</v>
+        <v>0.07983834379037986</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1149772348896466</v>
+        <v>0.1161012447059351</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>200</v>
@@ -1716,19 +1716,19 @@
         <v>201990</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>177878</v>
+        <v>177249</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>231113</v>
+        <v>232193</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09552003244067987</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08411734351230921</v>
+        <v>0.08381984474776573</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1092920473928626</v>
+        <v>0.1098026197768909</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>563659</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>531366</v>
+        <v>528339</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>595802</v>
+        <v>593694</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5029535087887649</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4741384321620264</v>
+        <v>0.4714370136369518</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5316339525894829</v>
+        <v>0.5297528878644688</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>457</v>
@@ -1766,19 +1766,19 @@
         <v>459267</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>428210</v>
+        <v>430404</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>495125</v>
+        <v>493177</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4620672173104336</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4308208836712479</v>
+        <v>0.4330284546763695</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.498143947298731</v>
+        <v>0.4961838564069865</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1009</v>
@@ -1787,19 +1787,19 @@
         <v>1022926</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>976739</v>
+        <v>976168</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1068831</v>
+        <v>1068996</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4837357971452738</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4618942218190039</v>
+        <v>0.4616241418850078</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5054437806555611</v>
+        <v>0.5055221633399452</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>239682</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>214218</v>
+        <v>215204</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>268910</v>
+        <v>267821</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2138678906718065</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1911471521191338</v>
+        <v>0.1920262090409499</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2399485927915196</v>
+        <v>0.2389765538824432</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>240</v>
@@ -1837,19 +1837,19 @@
         <v>243779</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>220428</v>
+        <v>216832</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>272485</v>
+        <v>272859</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2452651872307204</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2217720210886694</v>
+        <v>0.2181537404859887</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2741458915230616</v>
+        <v>0.2745224963804535</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>483</v>
@@ -1858,19 +1858,19 @@
         <v>483460</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>444248</v>
+        <v>440685</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>519757</v>
+        <v>519298</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2286255067293587</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2100822911849809</v>
+        <v>0.208397416809106</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.245790229859568</v>
+        <v>0.2455728804064197</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>192245</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>168604</v>
+        <v>168481</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>218658</v>
+        <v>221857</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1715398659146956</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1504457257620518</v>
+        <v>0.1503357189246591</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1951088400505412</v>
+        <v>0.1979627044181534</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>173</v>
@@ -1908,19 +1908,19 @@
         <v>179604</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>152270</v>
+        <v>157486</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>204173</v>
+        <v>204505</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1806990144320806</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1531981095826165</v>
+        <v>0.1584459083105993</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.205417806594725</v>
+        <v>0.2057514766387463</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>358</v>
@@ -1929,19 +1929,19 @@
         <v>371848</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>336949</v>
+        <v>339460</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>407458</v>
+        <v>405672</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1758449243766571</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1593413313092027</v>
+        <v>0.1605286653691667</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1926843655138721</v>
+        <v>0.1918400373745633</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>17446</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10599</v>
+        <v>10377</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27308</v>
+        <v>27211</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03901273525680565</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02370048142101079</v>
+        <v>0.02320344060448474</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0610644763580287</v>
+        <v>0.06084815664056141</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2054,19 +2054,19 @@
         <v>7158</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3089</v>
+        <v>3037</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14499</v>
+        <v>14507</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02098066365442837</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009053634435599428</v>
+        <v>0.008902826168830837</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04250002315994226</v>
+        <v>0.04252329061777507</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -2075,19 +2075,19 @@
         <v>24604</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16089</v>
+        <v>15532</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35191</v>
+        <v>35487</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03120944063672374</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02040801266851537</v>
+        <v>0.0197019575241455</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0446389703792743</v>
+        <v>0.0450132804060414</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>58302</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>45520</v>
+        <v>45410</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>74505</v>
+        <v>74004</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1303713333528392</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.101789335050536</v>
+        <v>0.1015423617607782</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1666033098659536</v>
+        <v>0.1654831772948617</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>55</v>
@@ -2125,19 +2125,19 @@
         <v>55313</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>42461</v>
+        <v>42354</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>70059</v>
+        <v>71699</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1621329329601194</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1244621253039206</v>
+        <v>0.1241484425793884</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2053562416937827</v>
+        <v>0.2101636005865177</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>114</v>
@@ -2146,19 +2146,19 @@
         <v>113615</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>96592</v>
+        <v>94864</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>134178</v>
+        <v>133603</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1441160169813143</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.122522751389606</v>
+        <v>0.1203308992686334</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1701994068757817</v>
+        <v>0.1694700520957574</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>194865</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>174368</v>
+        <v>170956</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>216925</v>
+        <v>214339</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4357454106528219</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3899113720839122</v>
+        <v>0.3822798978495306</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4850743978761282</v>
+        <v>0.4792914814731912</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>169</v>
@@ -2196,19 +2196,19 @@
         <v>170699</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>153829</v>
+        <v>152114</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>190291</v>
+        <v>190709</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5003509694124502</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4509035074802293</v>
+        <v>0.445876911024819</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5577791180923733</v>
+        <v>0.5590044205327377</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>360</v>
@@ -2217,19 +2217,19 @@
         <v>365564</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>338688</v>
+        <v>337536</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>395081</v>
+        <v>395228</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4637031639389129</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.429612316018582</v>
+        <v>0.4281504307577007</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5011439555952218</v>
+        <v>0.5013303437464152</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>106355</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87920</v>
+        <v>88342</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>126254</v>
+        <v>128043</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2378231877403094</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1966020349477474</v>
+        <v>0.197544179015833</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2823217604121674</v>
+        <v>0.2863223394276704</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>68</v>
@@ -2267,19 +2267,19 @@
         <v>67758</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55501</v>
+        <v>54263</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>83477</v>
+        <v>82408</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1986120233892417</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1626848004656405</v>
+        <v>0.159056654199154</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2446883118466926</v>
+        <v>0.2415545803534983</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>169</v>
@@ -2288,19 +2288,19 @@
         <v>174113</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>152390</v>
+        <v>150296</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>196673</v>
+        <v>199351</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2208547398229056</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.193300801387688</v>
+        <v>0.1906449219779902</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2494716676494284</v>
+        <v>0.2528681438782623</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>70232</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>56329</v>
+        <v>56674</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>87229</v>
+        <v>88224</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1570473329972239</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1259604063919054</v>
+        <v>0.1267297479685367</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1950566884922907</v>
+        <v>0.1972806439288429</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>40</v>
@@ -2338,19 +2338,19 @@
         <v>40231</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29531</v>
+        <v>29246</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>52583</v>
+        <v>54078</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1179234105837604</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08655979567068557</v>
+        <v>0.08572507678599613</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1541310836567007</v>
+        <v>0.1585118063871808</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>108</v>
@@ -2359,19 +2359,19 @@
         <v>110462</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>92656</v>
+        <v>90983</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>129726</v>
+        <v>131065</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1401166386201434</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1175304943357823</v>
+        <v>0.1154084471693909</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1645526832911913</v>
+        <v>0.1662506105810818</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>68252</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>54343</v>
+        <v>53069</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>87392</v>
+        <v>84734</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02113115716909788</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0168248442905431</v>
+        <v>0.0164304915084705</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02705690624276353</v>
+        <v>0.02623394082026936</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>54</v>
@@ -2484,19 +2484,19 @@
         <v>55655</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>42352</v>
+        <v>42833</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>71538</v>
+        <v>72827</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01678887539289606</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01277599020907202</v>
+        <v>0.01292119780988161</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02158036648268789</v>
+        <v>0.02196899133742249</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>119</v>
@@ -2505,19 +2505,19 @@
         <v>123907</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>103830</v>
+        <v>101540</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>146562</v>
+        <v>146243</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01893180749849932</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01586422511470717</v>
+        <v>0.01551442424037197</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02239324547990191</v>
+        <v>0.02234453660192968</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>338564</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>301056</v>
+        <v>303642</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>376019</v>
+        <v>375433</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1048208375268485</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09320803196273164</v>
+        <v>0.09400866556584178</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1164169019725009</v>
+        <v>0.1162356691962154</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>262</v>
@@ -2555,19 +2555,19 @@
         <v>263484</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>234454</v>
+        <v>232123</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>295967</v>
+        <v>295684</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07948305240927986</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07072581276315124</v>
+        <v>0.07002270411098094</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08928184071958473</v>
+        <v>0.08919656223454414</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>591</v>
@@ -2576,19 +2576,19 @@
         <v>602048</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>552700</v>
+        <v>557405</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>647053</v>
+        <v>655179</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0919873430131033</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08444743861341802</v>
+        <v>0.08516630044932449</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09886359432919117</v>
+        <v>0.100105246996823</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>1552326</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1489456</v>
+        <v>1491241</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1607964</v>
+        <v>1605941</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4806061001709993</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4611413966722237</v>
+        <v>0.4616940640533475</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4978320295937244</v>
+        <v>0.4972055394324396</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1581</v>
@@ -2626,19 +2626,19 @@
         <v>1608832</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1552607</v>
+        <v>1554122</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1671051</v>
+        <v>1663908</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4853232682063809</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4683623007253681</v>
+        <v>0.4688193232270182</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5040923616800552</v>
+        <v>0.5019378299131678</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3105</v>
@@ -2647,19 +2647,19 @@
         <v>3161157</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3086223</v>
+        <v>3082398</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3240609</v>
+        <v>3241320</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.482995328346295</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4715460545240027</v>
+        <v>0.4709617132685143</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4951348121520403</v>
+        <v>0.495243484242686</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>693592</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>648770</v>
+        <v>649025</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>739582</v>
+        <v>742063</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2147388310032882</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2008618745335268</v>
+        <v>0.2009407053204643</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2289775697311074</v>
+        <v>0.2297456248308266</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>696</v>
@@ -2697,19 +2697,19 @@
         <v>711254</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>665020</v>
+        <v>664483</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>756342</v>
+        <v>757428</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.214558333512664</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2006111753771021</v>
+        <v>0.2004492739546697</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2281596278958722</v>
+        <v>0.2284873139358196</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1389</v>
@@ -2718,19 +2718,19 @@
         <v>1404846</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1340964</v>
+        <v>1330704</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1477261</v>
+        <v>1468344</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2146474096914048</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2048867774687566</v>
+        <v>0.2033192018555028</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2257117443440064</v>
+        <v>0.2243493249417209</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>577199</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>536969</v>
+        <v>535602</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>620152</v>
+        <v>625716</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.178703074129766</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1662476158884117</v>
+        <v>0.1658245131557851</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1920016322378836</v>
+        <v>0.1937241665511238</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>641</v>
@@ -2768,19 +2768,19 @@
         <v>675745</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>630556</v>
+        <v>627034</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>728190</v>
+        <v>721900</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2038464704787791</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1902148911676698</v>
+        <v>0.1891523037865339</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2196673271631668</v>
+        <v>0.2177698876530387</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1197</v>
@@ -2789,19 +2789,19 @@
         <v>1252944</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1190981</v>
+        <v>1193911</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1318695</v>
+        <v>1321422</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1914381114506976</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1819708480938433</v>
+        <v>0.1824185114566434</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2014842506318313</v>
+        <v>0.2019010135577647</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>19362</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12537</v>
+        <v>11530</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30553</v>
+        <v>30270</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01856498342091928</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01202158859172609</v>
+        <v>0.01105572614960611</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02929587888127784</v>
+        <v>0.02902487048587133</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -3154,19 +3154,19 @@
         <v>22486</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14554</v>
+        <v>14577</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35046</v>
+        <v>34746</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0201174891236689</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01302126303636482</v>
+        <v>0.0130415871801773</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03135432466453908</v>
+        <v>0.03108618024480723</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -3175,19 +3175,19 @@
         <v>41847</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30259</v>
+        <v>30421</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55739</v>
+        <v>56738</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01936811910138722</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01400459769898693</v>
+        <v>0.01407948230959582</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02579729983254822</v>
+        <v>0.02625999873122501</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>101486</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>83747</v>
+        <v>83399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>121818</v>
+        <v>122415</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09731117295176193</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08030161691899991</v>
+        <v>0.07996782907950804</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1168063743274065</v>
+        <v>0.1173790614898714</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -3225,19 +3225,19 @@
         <v>92251</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>75231</v>
+        <v>74095</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>114272</v>
+        <v>113239</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08253440804755335</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06730686064261079</v>
+        <v>0.06629071203962886</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1022358870278794</v>
+        <v>0.1013113724565985</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>180</v>
@@ -3246,19 +3246,19 @@
         <v>193738</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>168014</v>
+        <v>167971</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>222658</v>
+        <v>222605</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08966691946178273</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07776121430348404</v>
+        <v>0.07774154913542927</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.103052227548315</v>
+        <v>0.1030276842615716</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>383478</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>351648</v>
+        <v>351821</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>413300</v>
+        <v>416537</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3677014619856956</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.337181292684717</v>
+        <v>0.3373469560928501</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3962973349141829</v>
+        <v>0.3994007721919002</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>339</v>
@@ -3296,19 +3296,19 @@
         <v>364151</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>331205</v>
+        <v>335202</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>395631</v>
+        <v>398859</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3257949978942516</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2963189583294444</v>
+        <v>0.2998949809441034</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3539590426287756</v>
+        <v>0.3568471545616151</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>703</v>
@@ -3317,19 +3317,19 @@
         <v>747629</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>700536</v>
+        <v>703158</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>788170</v>
+        <v>791751</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3460225873158772</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3242268692218092</v>
+        <v>0.3254404028757601</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3647863293157099</v>
+        <v>0.3664434844044561</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>188483</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>163691</v>
+        <v>163248</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>215579</v>
+        <v>216394</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1807286695840547</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1569567319486134</v>
+        <v>0.1565321709546262</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2067103049607729</v>
+        <v>0.2074917720062539</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>206</v>
@@ -3367,19 +3367,19 @@
         <v>223297</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>195188</v>
+        <v>195718</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>251694</v>
+        <v>250031</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1997774614273472</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1746285324294405</v>
+        <v>0.1751027224328597</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2251828866064888</v>
+        <v>0.2236950077136848</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>379</v>
@@ -3388,19 +3388,19 @@
         <v>411780</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>371527</v>
+        <v>374931</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>447752</v>
+        <v>451287</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1905829099723892</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1719527218739255</v>
+        <v>0.1735282248399975</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2072314621857116</v>
+        <v>0.208867765255298</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>350097</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>319946</v>
+        <v>319675</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>384576</v>
+        <v>382303</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3356937120575685</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3067832224729991</v>
+        <v>0.3065234741792567</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3687541332288119</v>
+        <v>0.3665751667173234</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>380</v>
@@ -3438,19 +3438,19 @@
         <v>415545</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>383493</v>
+        <v>380449</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>450220</v>
+        <v>446837</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3717756435071789</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3430992472417514</v>
+        <v>0.3403766139971753</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.402797862911743</v>
+        <v>0.3997711724280774</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>704</v>
@@ -3459,19 +3459,19 @@
         <v>765642</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>722918</v>
+        <v>714842</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>811224</v>
+        <v>809766</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3543594641485636</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3345858799487605</v>
+        <v>0.3308479028755996</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3754561962104224</v>
+        <v>0.3747814984672752</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>15426</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8627</v>
+        <v>9001</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25173</v>
+        <v>25016</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0158029241077849</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008837830495178273</v>
+        <v>0.00922103309341505</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02578788844940457</v>
+        <v>0.02562709726184883</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -3584,19 +3584,19 @@
         <v>19117</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12030</v>
+        <v>11116</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28524</v>
+        <v>27997</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01750484386898188</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01101569471800905</v>
+        <v>0.01017900029374015</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02611878093303441</v>
+        <v>0.02563632988937812</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -3605,19 +3605,19 @@
         <v>34543</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23523</v>
+        <v>23683</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47855</v>
+        <v>48179</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01670158955370688</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01137358920542102</v>
+        <v>0.01145079807739397</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.023138289291129</v>
+        <v>0.02329488774184273</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>103029</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84674</v>
+        <v>84132</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>124683</v>
+        <v>124611</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1055480146306997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08674371212799922</v>
+        <v>0.0861891000180018</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1277305487598639</v>
+        <v>0.1276571515752767</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>77</v>
@@ -3655,19 +3655,19 @@
         <v>80658</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>65202</v>
+        <v>64716</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>100121</v>
+        <v>100609</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07385680564926995</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05970418421092838</v>
+        <v>0.05925922527158282</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09167877684873946</v>
+        <v>0.09212558941608026</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>173</v>
@@ -3676,19 +3676,19 @@
         <v>183687</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>158335</v>
+        <v>157994</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>211766</v>
+        <v>211443</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08881409150433967</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07655608228818579</v>
+        <v>0.07639117419377488</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1023902914742132</v>
+        <v>0.1022342231823002</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>351486</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>319553</v>
+        <v>320435</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>382822</v>
+        <v>381836</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3600781062126395</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3273646159002729</v>
+        <v>0.3282683813740765</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3921803351213081</v>
+        <v>0.3911700626212769</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>357</v>
@@ -3726,19 +3726,19 @@
         <v>382074</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>349690</v>
+        <v>350786</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>416517</v>
+        <v>412376</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3498580295535606</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3202040206403451</v>
+        <v>0.3212080323179622</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3813965089253514</v>
+        <v>0.3776044879548104</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>696</v>
@@ -3747,19 +3747,19 @@
         <v>733560</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>687067</v>
+        <v>693654</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>776465</v>
+        <v>778418</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3546815946040496</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3322017667487631</v>
+        <v>0.3353865252697658</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3754261923126258</v>
+        <v>0.3763707931169248</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>220991</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>195977</v>
+        <v>196181</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>247890</v>
+        <v>251126</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2263934633327571</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2007680727951642</v>
+        <v>0.2009765595357827</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2539496997333427</v>
+        <v>0.2572650529494808</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>249</v>
@@ -3797,19 +3797,19 @@
         <v>269064</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>241271</v>
+        <v>237510</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>299008</v>
+        <v>297578</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2463763834017531</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2209275607900576</v>
+        <v>0.2174828718285091</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2737956400011994</v>
+        <v>0.2724866859659646</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>456</v>
@@ -3818,19 +3818,19 @@
         <v>490055</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>456078</v>
+        <v>450464</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>535283</v>
+        <v>530626</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2369450534747023</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2205171365753153</v>
+        <v>0.2178023057477521</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2588131947014096</v>
+        <v>0.2565613485697691</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>285206</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>257133</v>
+        <v>258436</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>314786</v>
+        <v>315475</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2921774917161187</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2634185957400638</v>
+        <v>0.2647535668830128</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3224805304549831</v>
+        <v>0.3231871374576244</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>316</v>
@@ -3868,19 +3868,19 @@
         <v>341171</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>307440</v>
+        <v>311212</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>372422</v>
+        <v>374302</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3124039375264344</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2815166756767516</v>
+        <v>0.2849707169752536</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3410199294731538</v>
+        <v>0.3427409429073625</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>582</v>
@@ -3889,19 +3889,19 @@
         <v>626377</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>584818</v>
+        <v>584012</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>669079</v>
+        <v>670477</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3028576708632015</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2827638171078581</v>
+        <v>0.2823738797910726</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3235046465778982</v>
+        <v>0.3241801749590104</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>14836</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7766</v>
+        <v>8405</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25211</v>
+        <v>25443</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01676214150621887</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008773933299468687</v>
+        <v>0.009496184651620852</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02848350464643775</v>
+        <v>0.02874505659879082</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -4014,19 +4014,19 @@
         <v>7013</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2988</v>
+        <v>3075</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12990</v>
+        <v>15096</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008017316796053924</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00341625707037778</v>
+        <v>0.003515602173032371</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01485023924732158</v>
+        <v>0.01725850439112675</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -4035,19 +4035,19 @@
         <v>21849</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13220</v>
+        <v>13623</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33624</v>
+        <v>33570</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01241553915146652</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007512149768635673</v>
+        <v>0.007741161510670599</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01910653040022717</v>
+        <v>0.01907573694377908</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>80694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>64367</v>
+        <v>64924</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>99460</v>
+        <v>100053</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09116741686402957</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07272205031156058</v>
+        <v>0.07335083840979996</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1123698830023844</v>
+        <v>0.1130393611157208</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>74</v>
@@ -4085,19 +4085,19 @@
         <v>78481</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>61265</v>
+        <v>60827</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>96201</v>
+        <v>95691</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0897210368963425</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07003881952650791</v>
+        <v>0.06953783729697896</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.109978413024383</v>
+        <v>0.1093950277055988</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>150</v>
@@ -4106,19 +4106,19 @@
         <v>159175</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>135726</v>
+        <v>134622</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>184434</v>
+        <v>185748</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09044849581280399</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07712388589981585</v>
+        <v>0.0764967580821995</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.104801416727659</v>
+        <v>0.1055482585816817</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>370427</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>339826</v>
+        <v>342487</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>401550</v>
+        <v>401032</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.41850674391003</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3839341297258854</v>
+        <v>0.386940756184343</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4536696686712687</v>
+        <v>0.4530850066223935</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>277</v>
@@ -4156,19 +4156,19 @@
         <v>297071</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>269061</v>
+        <v>271007</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>325806</v>
+        <v>328457</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3396156374570874</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3075937381744888</v>
+        <v>0.3098189740926878</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3724657944005305</v>
+        <v>0.375496188324713</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>629</v>
@@ -4177,19 +4177,19 @@
         <v>667498</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>626782</v>
+        <v>626048</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>709430</v>
+        <v>709234</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3792940346285297</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.356158230813459</v>
+        <v>0.3557410744845416</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4031211368943162</v>
+        <v>0.4030102327075781</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>190602</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>167690</v>
+        <v>165707</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>215734</v>
+        <v>215780</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2153413665036677</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1894551118304414</v>
+        <v>0.1872150785542791</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.243735678040943</v>
+        <v>0.2437878066475253</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>201</v>
@@ -4227,19 +4227,19 @@
         <v>211949</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>187243</v>
+        <v>187675</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>237450</v>
+        <v>240910</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2423029487788957</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2140586118433767</v>
+        <v>0.2145521884419652</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2714556585328003</v>
+        <v>0.2754112191780718</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>383</v>
@@ -4248,19 +4248,19 @@
         <v>402551</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>368623</v>
+        <v>368251</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>437500</v>
+        <v>438712</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2287425816096872</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2094635628667873</v>
+        <v>0.2092521388645171</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.248601885507119</v>
+        <v>0.2492906579269639</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>228556</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>202835</v>
+        <v>201375</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>256978</v>
+        <v>257133</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2582223312160538</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.229162460688486</v>
+        <v>0.2275126682994976</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2903330385979912</v>
+        <v>0.2905078128914717</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>261</v>
@@ -4298,19 +4298,19 @@
         <v>280213</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>250083</v>
+        <v>250495</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>308838</v>
+        <v>306501</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3203430600716204</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2858988690203761</v>
+        <v>0.2863691580142972</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3530673849116283</v>
+        <v>0.3503960653121277</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>469</v>
@@ -4319,19 +4319,19 @@
         <v>508769</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>472121</v>
+        <v>472713</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>549709</v>
+        <v>548118</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2890993487975126</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2682746636969842</v>
+        <v>0.2686111254790476</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3123627931676489</v>
+        <v>0.3114583608561315</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>9544</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4644</v>
+        <v>4562</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17932</v>
+        <v>18189</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01901038347932209</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009249374825881701</v>
+        <v>0.009086027355227073</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03571732144513762</v>
+        <v>0.03622860051064253</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7946</v>
+        <v>6966</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00499312703682562</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01758907860659138</v>
+        <v>0.01541979487654064</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -4465,19 +4465,19 @@
         <v>11800</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5802</v>
+        <v>5883</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20814</v>
+        <v>21373</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01237141889822863</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006083035945999945</v>
+        <v>0.006167592288179364</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02182160726062505</v>
+        <v>0.02240807418751243</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>71729</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>55575</v>
+        <v>57900</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>87561</v>
+        <v>90484</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1428708825730981</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1106946929222269</v>
+        <v>0.1153260272459167</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1744043867982524</v>
+        <v>0.1802259403164236</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>54</v>
@@ -4515,19 +4515,19 @@
         <v>57985</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>45106</v>
+        <v>43632</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>74499</v>
+        <v>74337</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1283554282563575</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09984717180422223</v>
+        <v>0.0965835064245409</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1649130153630008</v>
+        <v>0.1645539978117016</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>124</v>
@@ -4536,19 +4536,19 @@
         <v>129714</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>109497</v>
+        <v>108590</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>153563</v>
+        <v>152195</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1359959575488857</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1148003404289469</v>
+        <v>0.1138486691852544</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.161000281219533</v>
+        <v>0.1595654111674424</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>183081</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>159512</v>
+        <v>160591</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>207144</v>
+        <v>206580</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3646624347183366</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3177177428876075</v>
+        <v>0.319865682141273</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4125903518112328</v>
+        <v>0.4114668817988226</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>153</v>
@@ -4586,19 +4586,19 @@
         <v>169345</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>148572</v>
+        <v>148278</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>191700</v>
+        <v>192768</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3748650204179672</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3288814876709609</v>
+        <v>0.3282292711745186</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4243495807908</v>
+        <v>0.426714928599238</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>327</v>
@@ -4607,19 +4607,19 @@
         <v>352427</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>321748</v>
+        <v>320949</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>384129</v>
+        <v>385697</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3694946645753909</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3373300181008995</v>
+        <v>0.3364924730069507</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4027326207040809</v>
+        <v>0.404376009017988</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>114804</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>96674</v>
+        <v>94012</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>138070</v>
+        <v>137007</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2286681227906829</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1925551284462894</v>
+        <v>0.1872534990391117</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2750092750655977</v>
+        <v>0.2728909289473699</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>85</v>
@@ -4657,19 +4657,19 @@
         <v>93739</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>76766</v>
+        <v>75880</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>111272</v>
+        <v>112303</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2075009578114188</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1699307728495583</v>
+        <v>0.1679679514073786</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.246312334410233</v>
+        <v>0.2485958270186338</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>183</v>
@@ -4678,19 +4678,19 @@
         <v>208543</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>179931</v>
+        <v>182558</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>235428</v>
+        <v>240376</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2186427616113401</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1886449497958145</v>
+        <v>0.191399812466936</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2468299553428809</v>
+        <v>0.2520179090410307</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>122898</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>100522</v>
+        <v>102850</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>142728</v>
+        <v>146447</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2447881764385602</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2002208904081671</v>
+        <v>0.2048569009817684</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2842855357285471</v>
+        <v>0.2916946167723646</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>117</v>
@@ -4728,19 +4728,19 @@
         <v>128426</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>107919</v>
+        <v>109215</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>149466</v>
+        <v>150817</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.284285466477431</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2388912404607529</v>
+        <v>0.2417603066053976</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3308597041528433</v>
+        <v>0.3338508003881617</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>226</v>
@@ -4749,19 +4749,19 @@
         <v>251324</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>223762</v>
+        <v>222393</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>280187</v>
+        <v>283863</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2634951973661546</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2345990754673782</v>
+        <v>0.2331632165505058</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2937560023131011</v>
+        <v>0.2976100030996431</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>59168</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>45515</v>
+        <v>44498</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>78764</v>
+        <v>75848</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01737062063885231</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01336243058639645</v>
+        <v>0.013063901430208</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02312357775572958</v>
+        <v>0.02226747348877966</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>49</v>
@@ -4874,19 +4874,19 @@
         <v>50871</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>39320</v>
+        <v>38475</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>67062</v>
+        <v>66127</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01438549664292805</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01111890240936226</v>
+        <v>0.01088018092244396</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01896392273041691</v>
+        <v>0.01869939816429459</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>104</v>
@@ -4895,19 +4895,19 @@
         <v>110039</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>91267</v>
+        <v>89148</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>136858</v>
+        <v>133897</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01585009360514476</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01314610275963548</v>
+        <v>0.01284087604871378</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01971312250093279</v>
+        <v>0.01928655735386626</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>356939</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>323850</v>
+        <v>321405</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>397724</v>
+        <v>399335</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1047904249459492</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0950761693863181</v>
+        <v>0.09435846812790984</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1167642564643414</v>
+        <v>0.1172370762485701</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>288</v>
@@ -4945,19 +4945,19 @@
         <v>309375</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>276063</v>
+        <v>278255</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>346295</v>
+        <v>346542</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08748572202884644</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07806555056060664</v>
+        <v>0.07868543112147922</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0979260786945194</v>
+        <v>0.09799578314550662</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>627</v>
@@ -4966,19 +4966,19 @@
         <v>666314</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>620015</v>
+        <v>619665</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>721070</v>
+        <v>719829</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09597596074558164</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08930710253623174</v>
+        <v>0.08925665096048474</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1038631084580226</v>
+        <v>0.1036843665218842</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>1288472</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1226525</v>
+        <v>1234037</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1343758</v>
+        <v>1348535</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3782707621379398</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3600845415002088</v>
+        <v>0.3622898521441368</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3945019287911519</v>
+        <v>0.395904377640059</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1126</v>
@@ -5016,19 +5016,19 @@
         <v>1212642</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1153912</v>
+        <v>1152929</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1269844</v>
+        <v>1272850</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3429133532209847</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3263056652420193</v>
+        <v>0.3260277869255026</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3590890068034963</v>
+        <v>0.3599392343079978</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2355</v>
@@ -5037,19 +5037,19 @@
         <v>2501113</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2413418</v>
+        <v>2415043</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2579007</v>
+        <v>2580763</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3602608248041854</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3476291800789248</v>
+        <v>0.3478632794959433</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3714806882241849</v>
+        <v>0.3717336238526389</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>714880</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>666342</v>
+        <v>666007</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>760244</v>
+        <v>765821</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2098753007712272</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1956253481836931</v>
+        <v>0.1955269563957565</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2231933035520968</v>
+        <v>0.2248303805531522</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>741</v>
@@ -5087,19 +5087,19 @@
         <v>798049</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>746381</v>
+        <v>740690</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>847708</v>
+        <v>844959</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2256738578292838</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2110631328593895</v>
+        <v>0.2094539802749985</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2397166107227447</v>
+        <v>0.2389391872607123</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1401</v>
@@ -5108,19 +5108,19 @@
         <v>1512929</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1437813</v>
+        <v>1443546</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1581382</v>
+        <v>1583647</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2179225822687947</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.207102836337924</v>
+        <v>0.2079286625638586</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2277826250171914</v>
+        <v>0.2281087691249157</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>986756</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>927213</v>
+        <v>929260</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1039561</v>
+        <v>1037108</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2896928915060314</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2722120813904065</v>
+        <v>0.2728131378679037</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3051952275957775</v>
+        <v>0.3044752743812817</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1074</v>
@@ -5158,19 +5158,19 @@
         <v>1165355</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1102941</v>
+        <v>1110565</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1225228</v>
+        <v>1216422</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3295415702779571</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3118919751048001</v>
+        <v>0.3140477492394243</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3464724199805757</v>
+        <v>0.3439822164644398</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1981</v>
@@ -5179,19 +5179,19 @@
         <v>2152111</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2075551</v>
+        <v>2073262</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2236612</v>
+        <v>2234780</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3099905385762935</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.298962716482895</v>
+        <v>0.2986330276820671</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3221619597491789</v>
+        <v>0.3218981191107344</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>11519</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6188</v>
+        <v>6287</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20264</v>
+        <v>20295</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01023075875447955</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005495651394118974</v>
+        <v>0.005584177065993645</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01799795910599198</v>
+        <v>0.01802555441422187</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -5544,19 +5544,19 @@
         <v>12446</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6967</v>
+        <v>6619</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21002</v>
+        <v>21620</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009902360418720314</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005543143124582774</v>
+        <v>0.005266385690014188</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01670995502084089</v>
+        <v>0.01720170751901619</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -5565,19 +5565,19 @@
         <v>23965</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16550</v>
+        <v>14815</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38475</v>
+        <v>35467</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01005753540295624</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006945766660587467</v>
+        <v>0.006217645428688373</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01614716499390584</v>
+        <v>0.01488473938149103</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>144565</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>123154</v>
+        <v>122627</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>169715</v>
+        <v>170500</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1283968995951115</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1093807203347417</v>
+        <v>0.1089129690327913</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1507344429855473</v>
+        <v>0.1514316417326088</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>99</v>
@@ -5615,19 +5615,19 @@
         <v>101928</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>84495</v>
+        <v>82121</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>123639</v>
+        <v>121576</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08109601583209373</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06722600025686343</v>
+        <v>0.06533728525298341</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09837037565861612</v>
+        <v>0.09672851394216382</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>230</v>
@@ -5636,19 +5636,19 @@
         <v>246492</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>217916</v>
+        <v>215308</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>281113</v>
+        <v>276783</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.103446658612613</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0914538250790858</v>
+        <v>0.09035945950299393</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1179762583318667</v>
+        <v>0.1161589562022843</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>378250</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>348349</v>
+        <v>348230</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>416500</v>
+        <v>414301</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3359478407089505</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3093912089500883</v>
+        <v>0.3092851459268969</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3699200838870396</v>
+        <v>0.3679665811072301</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>379</v>
@@ -5686,19 +5686,19 @@
         <v>393689</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>359403</v>
+        <v>359366</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>429537</v>
+        <v>427345</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3132283067949038</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2859493654370189</v>
+        <v>0.2859205463184768</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3417495977158574</v>
+        <v>0.3400056663057924</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>730</v>
@@ -5707,19 +5707,19 @@
         <v>771939</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>720126</v>
+        <v>723190</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>816482</v>
+        <v>817742</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3239637549780046</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3022193012995215</v>
+        <v>0.3035048425112839</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3426572891795774</v>
+        <v>0.3431860412433483</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>384569</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>352096</v>
+        <v>351407</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>417265</v>
+        <v>415785</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3415604632953291</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3127191195209111</v>
+        <v>0.3121070020259019</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3705995273510442</v>
+        <v>0.369284686118739</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>428</v>
@@ -5757,19 +5757,19 @@
         <v>447575</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>413556</v>
+        <v>414636</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>482421</v>
+        <v>480614</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3561011274700509</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3290352033957013</v>
+        <v>0.3298941627267734</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3838256791859093</v>
+        <v>0.3823881922863867</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>804</v>
@@ -5778,19 +5778,19 @@
         <v>832144</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>786862</v>
+        <v>787619</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>879744</v>
+        <v>882229</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3492303638625684</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3302265865564263</v>
+        <v>0.3305444758677915</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3692070333160704</v>
+        <v>0.3702497213815256</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>207016</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>180894</v>
+        <v>185170</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>231426</v>
+        <v>237423</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1838640376461293</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.160663072650734</v>
+        <v>0.1644607803118086</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2055437883981529</v>
+        <v>0.2108701333118593</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>268</v>
@@ -5828,19 +5828,19 @@
         <v>301238</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>269277</v>
+        <v>269153</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>333568</v>
+        <v>332954</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2396721894842312</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2142433615608494</v>
+        <v>0.214144372940079</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2653950624470261</v>
+        <v>0.2649058791227991</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>463</v>
@@ -5849,19 +5849,19 @@
         <v>508254</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>470102</v>
+        <v>466945</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>550159</v>
+        <v>547529</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2133016871438577</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1972900471628124</v>
+        <v>0.1959654670199014</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.230888105328176</v>
+        <v>0.2297845787879604</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>8783</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3976</v>
+        <v>4249</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15814</v>
+        <v>16308</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009676405210977696</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004380108068806459</v>
+        <v>0.00468066133952029</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01742152700816196</v>
+        <v>0.01796593764612268</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -5974,19 +5974,19 @@
         <v>13213</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7613</v>
+        <v>7322</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22531</v>
+        <v>23304</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01314485730298193</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007573762302641602</v>
+        <v>0.007283696817375598</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02241433104305949</v>
+        <v>0.02318298649287541</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -5995,19 +5995,19 @@
         <v>21997</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14885</v>
+        <v>14268</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33454</v>
+        <v>32899</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0114990281919147</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007781193057295732</v>
+        <v>0.007458690490141592</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01748848576582184</v>
+        <v>0.01719835873836974</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>125756</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106334</v>
+        <v>106409</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>147250</v>
+        <v>150931</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1385440214657361</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1171466519925067</v>
+        <v>0.117229521217639</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1622237139135249</v>
+        <v>0.1662787484623</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>105</v>
@@ -6045,19 +6045,19 @@
         <v>109945</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>90290</v>
+        <v>90488</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>130752</v>
+        <v>130530</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1093762304414807</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08982299755041284</v>
+        <v>0.09001969439375208</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1300750359208942</v>
+        <v>0.1298537613925013</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>224</v>
@@ -6066,19 +6066,19 @@
         <v>235702</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>208369</v>
+        <v>207919</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>265762</v>
+        <v>266478</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1232167559265841</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1089283255784769</v>
+        <v>0.1086926932985276</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1389313704640681</v>
+        <v>0.1393053634111567</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>349294</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>323047</v>
+        <v>318517</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>379777</v>
+        <v>379716</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3848119101700209</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3558960907226672</v>
+        <v>0.3509060615640381</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4183949593183985</v>
+        <v>0.4183275172719836</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>348</v>
@@ -6116,19 +6116,19 @@
         <v>360645</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>332786</v>
+        <v>328821</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>395046</v>
+        <v>391016</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3587778607171387</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3310628748334799</v>
+        <v>0.327119152568576</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3930006426813858</v>
+        <v>0.3889914654980413</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>681</v>
@@ -6137,19 +6137,19 @@
         <v>709939</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>666304</v>
+        <v>668911</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>749787</v>
+        <v>754823</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3711313819225471</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3483204254967429</v>
+        <v>0.3496837302841863</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.391962647490742</v>
+        <v>0.3945955902946003</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>273254</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>248251</v>
+        <v>246987</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>301120</v>
+        <v>303610</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3010395704016266</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2734950559201172</v>
+        <v>0.2721025017479322</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3317398286515248</v>
+        <v>0.3344831493724124</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>302</v>
@@ -6187,19 +6187,19 @@
         <v>320728</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>290477</v>
+        <v>291614</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>351223</v>
+        <v>353872</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3190677566841842</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2889731436649938</v>
+        <v>0.2901046890199047</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3494047271352985</v>
+        <v>0.3520394994914475</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>573</v>
@@ -6208,19 +6208,19 @@
         <v>593982</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>552617</v>
+        <v>551609</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>633187</v>
+        <v>633460</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3105131297161551</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.288889024938396</v>
+        <v>0.2883622319973506</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3310082320518439</v>
+        <v>0.3311508212794926</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>150613</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>127785</v>
+        <v>130361</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>174484</v>
+        <v>173960</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1659280927516387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1407787272353192</v>
+        <v>0.1436163332282655</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1922269192942327</v>
+        <v>0.1916492576781374</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>182</v>
@@ -6258,19 +6258,19 @@
         <v>200672</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>174725</v>
+        <v>176234</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>226259</v>
+        <v>228221</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1996332948542144</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1738209083877658</v>
+        <v>0.1753219731579523</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2250875294921189</v>
+        <v>0.2270397857276001</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>330</v>
@@ -6279,19 +6279,19 @@
         <v>351285</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>317918</v>
+        <v>317602</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>384897</v>
+        <v>387683</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1836397042427989</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1661964493292972</v>
+        <v>0.1660310883424334</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.201210963016227</v>
+        <v>0.2026672050604713</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>7203</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2755</v>
+        <v>2904</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15283</v>
+        <v>15701</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00874390606711632</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003344889385856509</v>
+        <v>0.003525630437999963</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01855295764502187</v>
+        <v>0.01906073097675103</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -6404,19 +6404,19 @@
         <v>8934</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3862</v>
+        <v>3218</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19231</v>
+        <v>17757</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01158699255032209</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005008644730150881</v>
+        <v>0.004173925710348994</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0249403892291112</v>
+        <v>0.0230297478289591</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -6425,19 +6425,19 @@
         <v>16137</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9055</v>
+        <v>9448</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28274</v>
+        <v>29922</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01011847455823948</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005677973217942488</v>
+        <v>0.00592417665030275</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01772852195086809</v>
+        <v>0.01876170598906588</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>107234</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>88991</v>
+        <v>89130</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>126142</v>
+        <v>129376</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1301759779766481</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1080302700265211</v>
+        <v>0.1081993994497278</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1531294648873127</v>
+        <v>0.1570551091965319</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>88</v>
@@ -6475,19 +6475,19 @@
         <v>91289</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>73843</v>
+        <v>73534</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>111469</v>
+        <v>109728</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1183942562693032</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09576841807722668</v>
+        <v>0.0953680274818593</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.144566297488867</v>
+        <v>0.1423079936288779</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>191</v>
@@ -6496,19 +6496,19 @@
         <v>198523</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>174707</v>
+        <v>171980</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>228677</v>
+        <v>227717</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1244797800151154</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1095463857184574</v>
+        <v>0.1078366739069776</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1433874826756398</v>
+        <v>0.1427857407741235</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>301657</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>274191</v>
+        <v>274789</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>332219</v>
+        <v>331021</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3661951812573539</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3328528842788212</v>
+        <v>0.3335795243199793</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.403296724942036</v>
+        <v>0.4018421810600575</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>236</v>
@@ -6546,19 +6546,19 @@
         <v>239801</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>212351</v>
+        <v>213767</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>265206</v>
+        <v>263347</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3110017508947625</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2754017638474587</v>
+        <v>0.2772380753727159</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3439509206228581</v>
+        <v>0.3415395922020471</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>518</v>
@@ -6567,19 +6567,19 @@
         <v>541457</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>502581</v>
+        <v>500639</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>582341</v>
+        <v>582153</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3395103966960792</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3151339347789897</v>
+        <v>0.3139158455832524</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.365145888093347</v>
+        <v>0.3650279904664527</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>236132</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>208648</v>
+        <v>208222</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>261506</v>
+        <v>261452</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2866512999667383</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2532874519030489</v>
+        <v>0.2527701168204551</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3174550531044754</v>
+        <v>0.317388850175068</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>214</v>
@@ -6617,19 +6617,19 @@
         <v>228968</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>204388</v>
+        <v>204566</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>258253</v>
+        <v>254758</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2969520501802321</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2650745714938345</v>
+        <v>0.265304734685453</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3349326672035065</v>
+        <v>0.3304004887334448</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>441</v>
@@ -6638,19 +6638,19 @@
         <v>465099</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>429615</v>
+        <v>429769</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>501219</v>
+        <v>504332</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2916314814568326</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2693817484461873</v>
+        <v>0.2694785199574608</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3142794410708938</v>
+        <v>0.3162313913494798</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>171534</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>150322</v>
+        <v>150770</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>196407</v>
+        <v>199010</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2082336347321433</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1824833397225422</v>
+        <v>0.1830263431673481</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2384276998032246</v>
+        <v>0.2415875076499404</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>183</v>
@@ -6688,19 +6688,19 @@
         <v>202068</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>179483</v>
+        <v>180676</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>229865</v>
+        <v>228037</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2620649501053802</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2327748715127059</v>
+        <v>0.2343218233878951</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2981164928969233</v>
+        <v>0.2957458253552323</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>352</v>
@@ -6709,19 +6709,19 @@
         <v>373602</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>340090</v>
+        <v>340004</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>409982</v>
+        <v>409201</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2342598672737334</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2132470620891185</v>
+        <v>0.2131930345252839</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2570711014058505</v>
+        <v>0.2565817237223642</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>6824</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2496</v>
+        <v>2575</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14565</v>
+        <v>14400</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0135797947739069</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004967073202459752</v>
+        <v>0.005124831499517423</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02898305418853215</v>
+        <v>0.02865427325244511</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -6834,19 +6834,19 @@
         <v>11262</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6024</v>
+        <v>5760</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20657</v>
+        <v>20178</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02304946602043065</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01232896958906582</v>
+        <v>0.01178940363605259</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04227868600464717</v>
+        <v>0.0412981089858755</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -6855,19 +6855,19 @@
         <v>18086</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10190</v>
+        <v>10331</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28424</v>
+        <v>27384</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01824796996208734</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01028108900292939</v>
+        <v>0.01042335727858729</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02867872732336704</v>
+        <v>0.02762872222188351</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>96007</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>79309</v>
+        <v>77555</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>116971</v>
+        <v>115377</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1910447223981538</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1578166846063924</v>
+        <v>0.1543271053767315</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2327599960861858</v>
+        <v>0.2295885042568235</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>85</v>
@@ -6905,19 +6905,19 @@
         <v>86118</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>71960</v>
+        <v>69654</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>105827</v>
+        <v>103186</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1762590442350472</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1472828799456658</v>
+        <v>0.1425635381070135</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2165998343428185</v>
+        <v>0.2111939590789642</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>171</v>
@@ -6926,19 +6926,19 @@
         <v>182125</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>160820</v>
+        <v>157820</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>210964</v>
+        <v>208986</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1837559650437976</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1622599375871578</v>
+        <v>0.1592333139526167</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2128533658829811</v>
+        <v>0.2108573476301479</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>176760</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>154798</v>
+        <v>154328</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>199724</v>
+        <v>197331</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3517332603779194</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.308032264824777</v>
+        <v>0.3070960960813098</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3974299791421778</v>
+        <v>0.3926688934285735</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>161</v>
@@ -6976,19 +6976,19 @@
         <v>169144</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>149687</v>
+        <v>147915</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>190899</v>
+        <v>190844</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3461920341905961</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3063686814199159</v>
+        <v>0.3027411515039209</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3907178130492032</v>
+        <v>0.3906051861577458</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>327</v>
@@ -6997,19 +6997,19 @@
         <v>345904</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>315730</v>
+        <v>315218</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>380754</v>
+        <v>376512</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3490016539761392</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3185575897103814</v>
+        <v>0.3180410081848983</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3841638631093523</v>
+        <v>0.3798838680552071</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>136322</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>115268</v>
+        <v>116834</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>156899</v>
+        <v>159118</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2712656414910768</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2293717215253811</v>
+        <v>0.232488039379474</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3122116632567176</v>
+        <v>0.3166280445216691</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>98</v>
@@ -7047,19 +7047,19 @@
         <v>108952</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>87842</v>
+        <v>90486</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>127280</v>
+        <v>128381</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2229944326548141</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1797886753325516</v>
+        <v>0.1852006309481147</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2605070806608689</v>
+        <v>0.2627618332046337</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>226</v>
@@ -7068,19 +7068,19 @@
         <v>245274</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>219662</v>
+        <v>217368</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>274529</v>
+        <v>273547</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2474698355410405</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2216287000068463</v>
+        <v>0.2193143457470646</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2769872257981555</v>
+        <v>0.2759961466318579</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>86626</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>71131</v>
+        <v>71213</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>106689</v>
+        <v>105667</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1723765809589431</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.141543301888355</v>
+        <v>0.1417065329276759</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2122999102553013</v>
+        <v>0.2102666940508894</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>99</v>
@@ -7118,19 +7118,19 @@
         <v>113110</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>95697</v>
+        <v>93960</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>134459</v>
+        <v>133085</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2315050228991119</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1958647680530539</v>
+        <v>0.1923097341361795</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2752014613478349</v>
+        <v>0.2723888528921576</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>180</v>
@@ -7139,19 +7139,19 @@
         <v>199736</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>174250</v>
+        <v>172831</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>229131</v>
+        <v>226998</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2015245754769354</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1758099046600911</v>
+        <v>0.174378506379369</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2311831906106749</v>
+        <v>0.2290304825533252</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>34330</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22846</v>
+        <v>23384</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>47301</v>
+        <v>47648</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01021737344654115</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006799697652616528</v>
+        <v>0.006959598832875757</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0140779334932034</v>
+        <v>0.01418118483819903</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>43</v>
@@ -7264,19 +7264,19 @@
         <v>45855</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>33225</v>
+        <v>34188</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>62941</v>
+        <v>63563</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0130206652009052</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009434223267494355</v>
+        <v>0.009707658191380353</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01787226878713616</v>
+        <v>0.01804876557150878</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>75</v>
@@ -7285,19 +7285,19 @@
         <v>80185</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>63629</v>
+        <v>63225</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>101043</v>
+        <v>100071</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01165197572087865</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009246146966973087</v>
+        <v>0.00918750189414852</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01468296318598964</v>
+        <v>0.01454168394104958</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>473562</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>436088</v>
+        <v>430672</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>516111</v>
+        <v>515247</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1409445461833458</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1297911669078628</v>
+        <v>0.1281793025469693</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1536083274253309</v>
+        <v>0.1533509928748058</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>377</v>
@@ -7335,19 +7335,19 @@
         <v>389279</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>354330</v>
+        <v>355627</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>427596</v>
+        <v>426184</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.110536659198665</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.100612646409275</v>
+        <v>0.1009810766845499</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1214167278465971</v>
+        <v>0.1210156980864801</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>816</v>
@@ -7356,19 +7356,19 @@
         <v>862842</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>809707</v>
+        <v>810189</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>924843</v>
+        <v>921709</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1253831178168157</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1176618732026746</v>
+        <v>0.117731930243208</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1343927302417386</v>
+        <v>0.1339373646833146</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>1205960</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1151536</v>
+        <v>1151388</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1262349</v>
+        <v>1263015</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3589255544835931</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3427274616977121</v>
+        <v>0.3426835087963346</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3757081611593865</v>
+        <v>0.3759065824775846</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1124</v>
@@ -7406,19 +7406,19 @@
         <v>1163279</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1109072</v>
+        <v>1105309</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1218032</v>
+        <v>1219125</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3303152251007321</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.31492321915792</v>
+        <v>0.3138545850523949</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3458624084303709</v>
+        <v>0.346172934568945</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2256</v>
@@ -7427,19 +7427,19 @@
         <v>2369239</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2295050</v>
+        <v>2293546</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2453885</v>
+        <v>2448197</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3442840375817933</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3335033155094705</v>
+        <v>0.3332847225930701</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3565843394377375</v>
+        <v>0.35575774939993</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>1030276</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>980733</v>
+        <v>974795</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1084163</v>
+        <v>1085790</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3066373912948748</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2918918309165551</v>
+        <v>0.2901247449710151</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3226753045685843</v>
+        <v>0.323159601427606</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1042</v>
@@ -7477,19 +7477,19 @@
         <v>1106222</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1054818</v>
+        <v>1052196</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1165104</v>
+        <v>1163398</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3141138671774316</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2995177188609692</v>
+        <v>0.2987729474424984</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.330833431684897</v>
+        <v>0.3303491301934435</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2044</v>
@@ -7498,19 +7498,19 @@
         <v>2136499</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2054998</v>
+        <v>2062031</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2216834</v>
+        <v>2215873</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3104635250850691</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2986203645340615</v>
+        <v>0.2996423988776053</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3221373608204077</v>
+        <v>0.3219977817323204</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>615789</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>572307</v>
+        <v>569039</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>664323</v>
+        <v>661717</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1832751345916452</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1703336879675127</v>
+        <v>0.1693610972866677</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1977199376281312</v>
+        <v>0.1969443968372692</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>732</v>
@@ -7548,19 +7548,19 @@
         <v>817088</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>766903</v>
+        <v>766630</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>867459</v>
+        <v>871207</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2320135833222661</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2177634973050408</v>
+        <v>0.2176859455580377</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2463165756186751</v>
+        <v>0.2473809757363016</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1325</v>
@@ -7569,19 +7569,19 @@
         <v>1432877</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1366643</v>
+        <v>1364129</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1506112</v>
+        <v>1500139</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2082173437954432</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1985926304850481</v>
+        <v>0.1982272998443369</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2188593732065734</v>
+        <v>0.2179914799698472</v>
       </c>
     </row>
     <row r="33">
